--- a/data/dados_labfoto.xlsx
+++ b/data/dados_labfoto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\UFSC\Publications\NEPEM\RBAS\69rbras21seagro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18653700-19E7-4A26-A0FF-4A4E0E7646B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066240C-F20D-4276-ABA9-77D00D4994B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="265">
   <si>
     <t>UNIQUE_ID</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>MG</t>
-  </si>
-  <si>
-    <t>NPLA</t>
   </si>
   <si>
     <t>NR</t>
@@ -1204,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P201"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1212,7 @@
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,13 +1258,10 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2">
         <v>2001</v>
@@ -1279,30 +1273,27 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>48</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>2001</v>
@@ -1314,27 +1305,27 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>48</v>
       </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
       <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>2001</v>
@@ -1346,27 +1337,27 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>50</v>
       </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
       <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>2001</v>
@@ -1378,27 +1369,27 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>42</v>
       </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
       <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>2002</v>
@@ -1410,13 +1401,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -1431,24 +1422,21 @@
         <v>4.04</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N6">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="O6">
-        <v>121</v>
-      </c>
-      <c r="P6">
         <v>664</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>2002</v>
@@ -1460,13 +1448,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>65</v>
@@ -1480,22 +1468,22 @@
       <c r="K7">
         <v>2.2200000000000002</v>
       </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
       <c r="M7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N7">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="O7">
-        <v>95</v>
-      </c>
-      <c r="P7">
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>2002</v>
@@ -1507,13 +1495,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>62</v>
@@ -1527,22 +1515,22 @@
       <c r="K8">
         <v>3.02</v>
       </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
       <c r="M8">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N8">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="O8">
-        <v>103</v>
-      </c>
-      <c r="P8">
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>2002</v>
@@ -1554,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>60</v>
@@ -1574,22 +1562,22 @@
       <c r="K9">
         <v>2.39</v>
       </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
       <c r="M9">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N9">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="O9">
-        <v>94</v>
-      </c>
-      <c r="P9">
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>2003</v>
@@ -1601,13 +1589,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10">
         <v>66</v>
@@ -1625,21 +1613,18 @@
         <v>4</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N10">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="O10">
-        <v>161</v>
-      </c>
-      <c r="P10">
         <v>852</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>2003</v>
@@ -1651,13 +1636,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>60</v>
@@ -1671,22 +1656,22 @@
       <c r="K11">
         <v>2.2999999999999998</v>
       </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
       <c r="M11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N11">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="O11">
-        <v>53</v>
-      </c>
-      <c r="P11">
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>2003</v>
@@ -1698,13 +1683,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <v>62</v>
@@ -1718,22 +1703,22 @@
       <c r="K12">
         <v>5.31</v>
       </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
       <c r="M12">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N12">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="O12">
-        <v>234</v>
-      </c>
-      <c r="P12">
         <v>1005</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>2003</v>
@@ -1745,13 +1730,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13">
         <v>60</v>
@@ -1765,22 +1750,22 @@
       <c r="K13">
         <v>4.38</v>
       </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
       <c r="M13">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="O13">
-        <v>151</v>
-      </c>
-      <c r="P13">
         <v>736</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2004</v>
@@ -1792,13 +1777,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14">
         <v>60</v>
@@ -1813,24 +1798,21 @@
         <v>2.38</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="N14">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="O14">
-        <v>104</v>
-      </c>
-      <c r="P14">
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>2004</v>
@@ -1842,13 +1824,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <v>58</v>
@@ -1862,22 +1844,22 @@
       <c r="K15">
         <v>2</v>
       </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
       <c r="M15">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="N15">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="O15">
-        <v>67</v>
-      </c>
-      <c r="P15">
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>2004</v>
@@ -1889,13 +1871,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16">
         <v>68</v>
@@ -1909,22 +1891,22 @@
       <c r="K16">
         <v>2.3199999999999998</v>
       </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
       <c r="M16">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="N16">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="O16">
-        <v>71</v>
-      </c>
-      <c r="P16">
         <v>550</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>2004</v>
@@ -1936,13 +1918,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17">
         <v>68</v>
@@ -1956,22 +1938,22 @@
       <c r="K17">
         <v>8.9499999999999993</v>
       </c>
+      <c r="L17">
+        <v>11</v>
+      </c>
       <c r="M17">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N17">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="O17">
-        <v>226</v>
-      </c>
-      <c r="P17">
         <v>1632</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>2005</v>
@@ -1983,13 +1965,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18">
         <v>74</v>
@@ -2007,21 +1989,18 @@
         <v>4</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="N18">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="O18">
-        <v>145</v>
-      </c>
-      <c r="P18">
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>2005</v>
@@ -2033,13 +2012,13 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>72</v>
@@ -2053,22 +2032,22 @@
       <c r="K19">
         <v>6.78</v>
       </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
       <c r="M19">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N19">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="O19">
-        <v>180</v>
-      </c>
-      <c r="P19">
         <v>1230</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>2005</v>
@@ -2080,13 +2059,13 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20">
         <v>70</v>
@@ -2100,22 +2079,22 @@
       <c r="K20">
         <v>0.92</v>
       </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
       <c r="M20">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="N20">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="O20">
-        <v>166</v>
-      </c>
-      <c r="P20">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>2005</v>
@@ -2127,13 +2106,13 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21">
         <v>62</v>
@@ -2147,22 +2126,22 @@
       <c r="K21">
         <v>4.96</v>
       </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
       <c r="M21">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N21">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="O21">
-        <v>90</v>
-      </c>
-      <c r="P21">
         <v>1062</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>2006</v>
@@ -2174,13 +2153,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22">
         <v>82</v>
@@ -2195,24 +2174,21 @@
         <v>1.87</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="N22">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="O22">
-        <v>71</v>
-      </c>
-      <c r="P22">
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>2006</v>
@@ -2224,13 +2200,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23">
         <v>84</v>
@@ -2244,22 +2220,22 @@
       <c r="K23">
         <v>0.96</v>
       </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
       <c r="M23">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="N23">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="O23">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>47</v>
-      </c>
-      <c r="P23">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>48</v>
       </c>
       <c r="B24">
         <v>2006</v>
@@ -2271,13 +2247,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24">
         <v>86</v>
@@ -2291,22 +2267,22 @@
       <c r="K24">
         <v>0.52</v>
       </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
       <c r="M24">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="N24">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="O24">
-        <v>33</v>
-      </c>
-      <c r="P24">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>2006</v>
@@ -2318,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -2338,22 +2314,22 @@
       <c r="K25">
         <v>1.83</v>
       </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
       <c r="M25">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="N25">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O25">
-        <v>96</v>
-      </c>
-      <c r="P25">
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>2007</v>
@@ -2365,13 +2341,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26">
         <v>70</v>
@@ -2386,24 +2362,21 @@
         <v>1.36</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="N26">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="O26">
-        <v>48</v>
-      </c>
-      <c r="P26">
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>2007</v>
@@ -2415,13 +2388,13 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27">
         <v>65</v>
@@ -2435,22 +2408,22 @@
       <c r="K27">
         <v>1.71</v>
       </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
       <c r="M27">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="N27">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O27">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>52</v>
-      </c>
-      <c r="P27">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
       </c>
       <c r="B28">
         <v>2007</v>
@@ -2462,13 +2435,13 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H28">
         <v>69</v>
@@ -2482,22 +2455,22 @@
       <c r="K28">
         <v>1.1299999999999999</v>
       </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
       <c r="M28">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="N28">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="O28">
-        <v>29</v>
-      </c>
-      <c r="P28">
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>2007</v>
@@ -2509,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29">
         <v>70</v>
@@ -2529,22 +2502,22 @@
       <c r="K29">
         <v>1.43</v>
       </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
       <c r="M29">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="N29">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O29">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>54</v>
-      </c>
-      <c r="P29">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
       </c>
       <c r="B30">
         <v>2008</v>
@@ -2556,13 +2529,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30">
         <v>77</v>
@@ -2577,24 +2550,21 @@
         <v>3.46</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="N30">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="O30">
-        <v>106</v>
-      </c>
-      <c r="P30">
         <v>731</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31">
         <v>2008</v>
@@ -2606,13 +2576,13 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31">
         <v>64</v>
@@ -2626,22 +2596,22 @@
       <c r="K31">
         <v>1.65</v>
       </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
       <c r="M31">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="N31">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="O31">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>57</v>
-      </c>
-      <c r="P31">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>58</v>
       </c>
       <c r="B32">
         <v>2008</v>
@@ -2653,13 +2623,13 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32">
         <v>75</v>
@@ -2673,22 +2643,22 @@
       <c r="K32">
         <v>5.65</v>
       </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
       <c r="M32">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N32">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="O32">
-        <v>143</v>
-      </c>
-      <c r="P32">
         <v>923</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33">
         <v>2008</v>
@@ -2700,13 +2670,13 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H33">
         <v>78</v>
@@ -2720,22 +2690,22 @@
       <c r="K33">
         <v>4.32</v>
       </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
       <c r="M33">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="N33">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="O33">
-        <v>135</v>
-      </c>
-      <c r="P33">
         <v>831</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34">
         <v>2009</v>
@@ -2747,13 +2717,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34">
         <v>40</v>
@@ -2768,24 +2738,21 @@
         <v>1.66</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N34">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="O34">
-        <v>54</v>
-      </c>
-      <c r="P34">
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35">
         <v>2009</v>
@@ -2797,13 +2764,13 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H35">
         <v>69</v>
@@ -2817,22 +2784,22 @@
       <c r="K35">
         <v>2.35</v>
       </c>
+      <c r="L35">
+        <v>13</v>
+      </c>
       <c r="M35">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N35">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="O35">
-        <v>99</v>
-      </c>
-      <c r="P35">
         <v>423</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36">
         <v>2009</v>
@@ -2844,13 +2811,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36">
         <v>78</v>
@@ -2864,22 +2831,22 @@
       <c r="K36">
         <v>0.1</v>
       </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
       <c r="M36">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N36">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="O36">
-        <v>18</v>
-      </c>
-      <c r="P36">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37">
         <v>2009</v>
@@ -2891,13 +2858,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H37">
         <v>70</v>
@@ -2911,22 +2878,22 @@
       <c r="K37">
         <v>1.44</v>
       </c>
+      <c r="L37">
+        <v>10</v>
+      </c>
       <c r="M37">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N37">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="O37">
-        <v>54</v>
-      </c>
-      <c r="P37">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38">
         <v>2010</v>
@@ -2938,13 +2905,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H38">
         <v>88</v>
@@ -2959,24 +2926,21 @@
         <v>5.54</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N38">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="O38">
-        <v>144</v>
-      </c>
-      <c r="P38">
         <v>1085</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39">
         <v>2010</v>
@@ -2988,13 +2952,13 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H39">
         <v>80</v>
@@ -3008,22 +2972,22 @@
       <c r="K39">
         <v>2.71</v>
       </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
       <c r="M39">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N39">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="O39">
-        <v>77</v>
-      </c>
-      <c r="P39">
         <v>477</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40">
         <v>2010</v>
@@ -3035,13 +2999,13 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H40">
         <v>84</v>
@@ -3055,22 +3019,22 @@
       <c r="K40">
         <v>2.25</v>
       </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
       <c r="M40">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N40">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="O40">
-        <v>57</v>
-      </c>
-      <c r="P40">
         <v>426</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41">
         <v>2010</v>
@@ -3082,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H41">
         <v>74</v>
@@ -3102,22 +3066,22 @@
       <c r="K41">
         <v>4.46</v>
       </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
       <c r="M41">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N41">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="O41">
-        <v>117</v>
-      </c>
-      <c r="P41">
         <v>760</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42">
         <v>2011</v>
@@ -3129,13 +3093,13 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H42">
         <v>60</v>
@@ -3150,24 +3114,21 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M42">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="N42">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="O42">
-        <v>28</v>
-      </c>
-      <c r="P42">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43">
         <v>2011</v>
@@ -3179,13 +3140,13 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H43">
         <v>56</v>
@@ -3199,22 +3160,22 @@
       <c r="K43">
         <v>1.7</v>
       </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
       <c r="M43">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="N43">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="O43">
-        <v>73</v>
-      </c>
-      <c r="P43">
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44">
         <v>2011</v>
@@ -3226,13 +3187,13 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44">
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44">
         <v>63</v>
@@ -3246,22 +3207,22 @@
       <c r="K44">
         <v>2.1800000000000002</v>
       </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
       <c r="M44">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="N44">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="O44">
-        <v>76</v>
-      </c>
-      <c r="P44">
         <v>485</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45">
         <v>2011</v>
@@ -3273,13 +3234,13 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H45">
         <v>74</v>
@@ -3293,22 +3254,22 @@
       <c r="K45">
         <v>4.1100000000000003</v>
       </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
       <c r="M45">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="N45">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O45">
-        <v>134</v>
-      </c>
-      <c r="P45">
         <v>838</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46">
         <v>2012</v>
@@ -3320,13 +3281,13 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46">
         <v>63</v>
@@ -3344,21 +3305,18 @@
         <v>4</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N46">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="O46">
-        <v>120</v>
-      </c>
-      <c r="P46">
         <v>750</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>2012</v>
@@ -3370,13 +3328,13 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H47">
         <v>72</v>
@@ -3390,22 +3348,22 @@
       <c r="K47">
         <v>6.2</v>
       </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
       <c r="M47">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N47">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="O47">
-        <v>176</v>
-      </c>
-      <c r="P47">
         <v>1319</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48">
         <v>2012</v>
@@ -3417,13 +3375,13 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48">
         <v>64</v>
@@ -3437,22 +3395,22 @@
       <c r="K48">
         <v>3.58</v>
       </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
       <c r="M48">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="N48">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="O48">
-        <v>128</v>
-      </c>
-      <c r="P48">
         <v>829</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49">
         <v>2012</v>
@@ -3464,13 +3422,13 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H49">
         <v>69</v>
@@ -3484,22 +3442,22 @@
       <c r="K49">
         <v>2.54</v>
       </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
       <c r="M49">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="N49">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="O49">
-        <v>66</v>
-      </c>
-      <c r="P49">
         <v>492</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50">
         <v>2013</v>
@@ -3511,13 +3469,13 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F50">
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H50">
         <v>73</v>
@@ -3532,24 +3490,21 @@
         <v>4.33</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="N50">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="O50">
-        <v>104</v>
-      </c>
-      <c r="P50">
         <v>865</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51">
         <v>2013</v>
@@ -3561,13 +3516,13 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H51">
         <v>69</v>
@@ -3581,22 +3536,22 @@
       <c r="K51">
         <v>0.95</v>
       </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
       <c r="M51">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="N51">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="O51">
-        <v>4</v>
-      </c>
-      <c r="P51">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52">
         <v>2013</v>
@@ -3608,13 +3563,13 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H52">
         <v>78</v>
@@ -3628,22 +3583,22 @@
       <c r="K52">
         <v>6.08</v>
       </c>
+      <c r="L52">
+        <v>5</v>
+      </c>
       <c r="M52">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="N52">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="O52">
-        <v>168</v>
-      </c>
-      <c r="P52">
         <v>1205</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53">
         <v>2013</v>
@@ -3655,13 +3610,13 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H53">
         <v>75</v>
@@ -3675,22 +3630,22 @@
       <c r="K53">
         <v>2.81</v>
       </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
       <c r="M53">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="N53">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O53">
-        <v>83</v>
-      </c>
-      <c r="P53">
         <v>587</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54">
         <v>2014</v>
@@ -3702,13 +3657,13 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H54">
         <v>80</v>
@@ -3723,24 +3678,21 @@
         <v>8.92</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M54">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="N54">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="O54">
-        <v>215</v>
-      </c>
-      <c r="P54">
         <v>1692</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B55">
         <v>2014</v>
@@ -3752,13 +3704,13 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H55">
         <v>70</v>
@@ -3772,22 +3724,22 @@
       <c r="K55">
         <v>1.38</v>
       </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
       <c r="M55">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="N55">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="O55">
-        <v>43</v>
-      </c>
-      <c r="P55">
         <v>286</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B56">
         <v>2014</v>
@@ -3799,13 +3751,13 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F56">
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H56">
         <v>70</v>
@@ -3819,22 +3771,22 @@
       <c r="K56">
         <v>2.4300000000000002</v>
       </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
       <c r="M56">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="N56">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="O56">
-        <v>53</v>
-      </c>
-      <c r="P56">
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57">
         <v>2014</v>
@@ -3846,13 +3798,13 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H57">
         <v>84</v>
@@ -3866,22 +3818,22 @@
       <c r="K57">
         <v>2.6</v>
       </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
       <c r="M57">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="N57">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O57">
-        <v>74</v>
-      </c>
-      <c r="P57">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58">
         <v>2015</v>
@@ -3893,13 +3845,13 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F58">
         <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H58">
         <v>73</v>
@@ -3914,24 +3866,21 @@
         <v>12.64</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N58">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="O58">
-        <v>378</v>
-      </c>
-      <c r="P58">
         <v>2258</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B59">
         <v>2015</v>
@@ -3943,13 +3892,13 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H59">
         <v>72</v>
@@ -3963,22 +3912,22 @@
       <c r="K59">
         <v>3.55</v>
       </c>
+      <c r="L59">
+        <v>8</v>
+      </c>
       <c r="M59">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N59">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="O59">
-        <v>155</v>
-      </c>
-      <c r="P59">
         <v>707</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60">
         <v>2015</v>
@@ -3990,13 +3939,13 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H60">
         <v>52</v>
@@ -4010,22 +3959,22 @@
       <c r="K60">
         <v>3.9</v>
       </c>
+      <c r="L60">
+        <v>8</v>
+      </c>
       <c r="M60">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N60">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="O60">
-        <v>91</v>
-      </c>
-      <c r="P60">
         <v>744</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61">
         <v>2015</v>
@@ -4037,13 +3986,13 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H61">
         <v>74</v>
@@ -4057,22 +4006,22 @@
       <c r="K61">
         <v>17.329999999999998</v>
       </c>
+      <c r="L61">
+        <v>8</v>
+      </c>
       <c r="M61">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N61">
-        <v>50</v>
+        <v>342</v>
       </c>
       <c r="O61">
-        <v>342</v>
-      </c>
-      <c r="P61">
         <v>2850</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B62">
         <v>2016</v>
@@ -4084,13 +4033,13 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H62">
         <v>71</v>
@@ -4105,24 +4054,21 @@
         <v>7</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M62">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="N62">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="O62">
-        <v>193</v>
-      </c>
-      <c r="P62">
         <v>1478</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63">
         <v>2016</v>
@@ -4134,13 +4080,13 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H63">
         <v>76</v>
@@ -4154,22 +4100,22 @@
       <c r="K63">
         <v>7.28</v>
       </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
       <c r="M63">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="N63">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="O63">
-        <v>199</v>
-      </c>
-      <c r="P63">
         <v>1456</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64">
         <v>2016</v>
@@ -4181,13 +4127,13 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F64">
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H64">
         <v>63</v>
@@ -4201,22 +4147,22 @@
       <c r="K64">
         <v>3.46</v>
       </c>
+      <c r="L64">
+        <v>6</v>
+      </c>
       <c r="M64">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="N64">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="O64">
-        <v>103</v>
-      </c>
-      <c r="P64">
         <v>737</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65">
         <v>2016</v>
@@ -4228,13 +4174,13 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H65">
         <v>69</v>
@@ -4248,22 +4194,22 @@
       <c r="K65">
         <v>3.37</v>
       </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
       <c r="M65">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="N65">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="O65">
-        <v>96</v>
-      </c>
-      <c r="P65">
         <v>739</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B66">
         <v>2017</v>
@@ -4275,13 +4221,13 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66">
         <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H66">
         <v>52</v>
@@ -4296,24 +4242,21 @@
         <v>0.05</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M66">
+        <v>38</v>
+      </c>
+      <c r="N66">
         <v>2</v>
       </c>
-      <c r="N66">
-        <v>38</v>
-      </c>
       <c r="O66">
-        <v>2</v>
-      </c>
-      <c r="P66">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67">
         <v>2017</v>
@@ -4325,13 +4268,13 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F67">
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H67">
         <v>58</v>
@@ -4345,22 +4288,22 @@
       <c r="K67">
         <v>0.08</v>
       </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
       <c r="M67">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="N67">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="O67">
-        <v>5</v>
-      </c>
-      <c r="P67">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B68">
         <v>2017</v>
@@ -4372,13 +4315,13 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F68">
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H68">
         <v>56</v>
@@ -4392,22 +4335,22 @@
       <c r="K68">
         <v>0.02</v>
       </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
       <c r="M68">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="N68">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="O68">
-        <v>4</v>
-      </c>
-      <c r="P68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69">
         <v>2017</v>
@@ -4419,13 +4362,13 @@
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F69">
         <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H69">
         <v>56</v>
@@ -4439,22 +4382,22 @@
       <c r="K69">
         <v>0.33</v>
       </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
       <c r="M69">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="N69">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O69">
-        <v>9</v>
-      </c>
-      <c r="P69">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70">
         <v>2018</v>
@@ -4466,13 +4409,13 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F70">
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H70">
         <v>64</v>
@@ -4490,21 +4433,18 @@
         <v>4</v>
       </c>
       <c r="M70">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N70">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="O70">
-        <v>52</v>
-      </c>
-      <c r="P70">
         <v>335</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>2018</v>
@@ -4516,13 +4456,13 @@
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F71">
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H71">
         <v>67</v>
@@ -4536,22 +4476,22 @@
       <c r="K71">
         <v>4.8600000000000003</v>
       </c>
+      <c r="L71">
+        <v>10</v>
+      </c>
       <c r="M71">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N71">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="O71">
-        <v>142</v>
-      </c>
-      <c r="P71">
         <v>1017</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72">
         <v>2018</v>
@@ -4563,13 +4503,13 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F72">
         <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H72">
         <v>62</v>
@@ -4583,22 +4523,22 @@
       <c r="K72">
         <v>5.71</v>
       </c>
+      <c r="L72">
+        <v>9</v>
+      </c>
       <c r="M72">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N72">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="O72">
-        <v>150</v>
-      </c>
-      <c r="P72">
         <v>965</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73">
         <v>2018</v>
@@ -4610,13 +4550,13 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H73">
         <v>62</v>
@@ -4630,22 +4570,22 @@
       <c r="K73">
         <v>3.33</v>
       </c>
+      <c r="L73">
+        <v>6</v>
+      </c>
       <c r="M73">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N73">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="O73">
-        <v>86</v>
-      </c>
-      <c r="P73">
         <v>542</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>2019</v>
@@ -4657,13 +4597,13 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F74">
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H74">
         <v>65</v>
@@ -4678,24 +4618,21 @@
         <v>3.08</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="N74">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="O74">
-        <v>70</v>
-      </c>
-      <c r="P74">
         <v>611</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75">
         <v>2019</v>
@@ -4707,13 +4644,13 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H75">
         <v>69</v>
@@ -4727,22 +4664,22 @@
       <c r="K75">
         <v>1.4</v>
       </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
       <c r="M75">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="N75">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="O75">
-        <v>40</v>
-      </c>
-      <c r="P75">
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76">
         <v>2019</v>
@@ -4754,13 +4691,13 @@
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F76">
         <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H76">
         <v>65</v>
@@ -4774,22 +4711,22 @@
       <c r="K76">
         <v>2.68</v>
       </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
       <c r="M76">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="N76">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O76">
-        <v>71</v>
-      </c>
-      <c r="P76">
         <v>546</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B77">
         <v>2019</v>
@@ -4801,13 +4738,13 @@
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F77">
         <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H77">
         <v>54</v>
@@ -4821,22 +4758,22 @@
       <c r="K77">
         <v>2.8</v>
       </c>
+      <c r="L77">
+        <v>5</v>
+      </c>
       <c r="M77">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="N77">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O77">
-        <v>81</v>
-      </c>
-      <c r="P77">
         <v>481</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78">
         <v>2020</v>
@@ -4848,13 +4785,13 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F78">
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H78">
         <v>40</v>
@@ -4869,24 +4806,21 @@
         <v>0.65</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M78">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N78">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="O78">
-        <v>27</v>
-      </c>
-      <c r="P78">
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79">
         <v>2020</v>
@@ -4898,13 +4832,13 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F79">
         <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H79">
         <v>45</v>
@@ -4918,22 +4852,22 @@
       <c r="K79">
         <v>0.51</v>
       </c>
+      <c r="L79">
+        <v>5</v>
+      </c>
       <c r="M79">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N79">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O79">
-        <v>15</v>
-      </c>
-      <c r="P79">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80">
         <v>2020</v>
@@ -4945,13 +4879,13 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F80">
         <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H80">
         <v>53</v>
@@ -4965,22 +4899,22 @@
       <c r="K80">
         <v>0.85</v>
       </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
       <c r="M80">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N80">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="O80">
-        <v>27</v>
-      </c>
-      <c r="P80">
         <v>193</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81">
         <v>2020</v>
@@ -4992,13 +4926,13 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F81">
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H81">
         <v>62</v>
@@ -5012,22 +4946,22 @@
       <c r="K81">
         <v>2.59</v>
       </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
       <c r="M81">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N81">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="O81">
-        <v>60</v>
-      </c>
-      <c r="P81">
         <v>477</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82">
         <v>2021</v>
@@ -5039,13 +4973,13 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F82">
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H82">
         <v>68</v>
@@ -5060,24 +4994,21 @@
         <v>1.82</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N82">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="O82">
-        <v>53</v>
-      </c>
-      <c r="P82">
         <v>335</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>2021</v>
@@ -5089,13 +5020,13 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F83">
         <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H83">
         <v>68</v>
@@ -5109,22 +5040,22 @@
       <c r="K83">
         <v>1.75</v>
       </c>
+      <c r="L83">
+        <v>5</v>
+      </c>
       <c r="M83">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N83">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="O83">
-        <v>56</v>
-      </c>
-      <c r="P83">
         <v>348</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>2021</v>
@@ -5136,13 +5067,13 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F84">
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H84">
         <v>78</v>
@@ -5156,22 +5087,22 @@
       <c r="K84">
         <v>2</v>
       </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
       <c r="M84">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N84">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="O84">
-        <v>58</v>
-      </c>
-      <c r="P84">
         <v>370</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>2021</v>
@@ -5183,13 +5114,13 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F85">
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H85">
         <v>57</v>
@@ -5203,22 +5134,22 @@
       <c r="K85">
         <v>3.28</v>
       </c>
+      <c r="L85">
+        <v>6</v>
+      </c>
       <c r="M85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N85">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="O85">
-        <v>118</v>
-      </c>
-      <c r="P85">
         <v>641</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>2022</v>
@@ -5230,13 +5161,13 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F86">
         <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H86">
         <v>77</v>
@@ -5251,24 +5182,21 @@
         <v>7.2</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M86">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N86">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="O86">
-        <v>199</v>
-      </c>
-      <c r="P86">
         <v>1239</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87">
         <v>2022</v>
@@ -5280,13 +5208,13 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F87">
         <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H87">
         <v>70</v>
@@ -5300,22 +5228,22 @@
       <c r="K87">
         <v>1.1599999999999999</v>
       </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
       <c r="M87">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N87">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="O87">
-        <v>31</v>
-      </c>
-      <c r="P87">
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88">
         <v>2022</v>
@@ -5327,13 +5255,13 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F88">
         <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H88">
         <v>60</v>
@@ -5347,22 +5275,22 @@
       <c r="K88">
         <v>0.96</v>
       </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
       <c r="M88">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N88">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="O88">
-        <v>37</v>
-      </c>
-      <c r="P88">
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B89">
         <v>2022</v>
@@ -5374,13 +5302,13 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F89">
         <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H89">
         <v>68</v>
@@ -5394,22 +5322,22 @@
       <c r="K89">
         <v>0.95</v>
       </c>
+      <c r="L89">
+        <v>6</v>
+      </c>
       <c r="M89">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N89">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="O89">
-        <v>38</v>
-      </c>
-      <c r="P89">
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B90">
         <v>2023</v>
@@ -5421,13 +5349,13 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F90">
         <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H90">
         <v>69</v>
@@ -5442,24 +5370,21 @@
         <v>2.41</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N90">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="O90">
-        <v>108</v>
-      </c>
-      <c r="P90">
         <v>468</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>2023</v>
@@ -5471,13 +5396,13 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F91">
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H91">
         <v>67</v>
@@ -5491,22 +5416,22 @@
       <c r="K91">
         <v>1.55</v>
       </c>
+      <c r="L91">
+        <v>5</v>
+      </c>
       <c r="M91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N91">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="O91">
-        <v>43</v>
-      </c>
-      <c r="P91">
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>2023</v>
@@ -5518,13 +5443,13 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F92">
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H92">
         <v>74</v>
@@ -5538,22 +5463,22 @@
       <c r="K92">
         <v>0.34</v>
       </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
       <c r="M92">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N92">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="O92">
-        <v>74</v>
-      </c>
-      <c r="P92">
         <v>473</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>2023</v>
@@ -5565,13 +5490,13 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F93">
         <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H93">
         <v>59</v>
@@ -5585,22 +5510,22 @@
       <c r="K93">
         <v>2.2400000000000002</v>
       </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
       <c r="M93">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N93">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="O93">
-        <v>71</v>
-      </c>
-      <c r="P93">
         <v>441</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>2024</v>
@@ -5612,13 +5537,13 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F94">
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H94">
         <v>36</v>
@@ -5633,24 +5558,21 @@
         <v>0.33</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N94">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="O94">
-        <v>37</v>
-      </c>
-      <c r="P94">
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B95">
         <v>2024</v>
@@ -5662,13 +5584,13 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F95">
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H95">
         <v>62</v>
@@ -5682,22 +5604,22 @@
       <c r="K95">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
       <c r="M95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O95">
-        <v>8</v>
-      </c>
-      <c r="P95">
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96">
         <v>2024</v>
@@ -5709,13 +5631,13 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F96">
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H96">
         <v>54</v>
@@ -5729,22 +5651,22 @@
       <c r="K96">
         <v>0.05</v>
       </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
       <c r="M96">
         <v>4</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O96">
-        <v>5</v>
-      </c>
-      <c r="P96">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B97">
         <v>2024</v>
@@ -5756,27 +5678,27 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F97">
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
       </c>
       <c r="N97">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="O97">
-        <v>27</v>
-      </c>
-      <c r="P97">
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B98">
         <v>2025</v>
@@ -5788,13 +5710,13 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F98">
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H98">
         <v>80</v>
@@ -5809,24 +5731,21 @@
         <v>2.89</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M98">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="N98">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="O98">
-        <v>75</v>
-      </c>
-      <c r="P98">
         <v>614</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B99">
         <v>2025</v>
@@ -5838,13 +5757,13 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F99">
         <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H99">
         <v>67</v>
@@ -5858,22 +5777,22 @@
       <c r="K99">
         <v>7.34</v>
       </c>
+      <c r="L99">
+        <v>6</v>
+      </c>
       <c r="M99">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="N99">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="O99">
-        <v>191</v>
-      </c>
-      <c r="P99">
         <v>1387</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B100">
         <v>2025</v>
@@ -5885,13 +5804,13 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F100">
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H100">
         <v>73</v>
@@ -5905,22 +5824,22 @@
       <c r="K100">
         <v>5.58</v>
       </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
       <c r="M100">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="N100">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="O100">
-        <v>149</v>
-      </c>
-      <c r="P100">
         <v>1061</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B101">
         <v>2025</v>
@@ -5932,13 +5851,13 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F101">
         <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H101">
         <v>67</v>
@@ -5952,22 +5871,22 @@
       <c r="K101">
         <v>3.42</v>
       </c>
+      <c r="L101">
+        <v>5</v>
+      </c>
       <c r="M101">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="N101">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="O101">
-        <v>89</v>
-      </c>
-      <c r="P101">
         <v>630</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B102">
         <v>2026</v>
@@ -5979,13 +5898,13 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F102">
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H102">
         <v>79</v>
@@ -6000,24 +5919,21 @@
         <v>0.6</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M102">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="N102">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="O102">
-        <v>25</v>
-      </c>
-      <c r="P102">
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B103">
         <v>2026</v>
@@ -6029,13 +5945,13 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F103">
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H103">
         <v>80</v>
@@ -6049,22 +5965,22 @@
       <c r="K103">
         <v>1.32</v>
       </c>
+      <c r="L103">
+        <v>5</v>
+      </c>
       <c r="M103">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="N103">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="O103">
-        <v>51</v>
-      </c>
-      <c r="P103">
         <v>296</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B104">
         <v>2026</v>
@@ -6076,13 +5992,13 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F104">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H104">
         <v>78</v>
@@ -6096,22 +6012,22 @@
       <c r="K104">
         <v>1.1000000000000001</v>
       </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
       <c r="M104">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="N104">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O104">
-        <v>68</v>
-      </c>
-      <c r="P104">
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B105">
         <v>2026</v>
@@ -6123,13 +6039,13 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F105">
         <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H105">
         <v>83</v>
@@ -6143,22 +6059,22 @@
       <c r="K105">
         <v>2.52</v>
       </c>
+      <c r="L105">
+        <v>5</v>
+      </c>
       <c r="M105">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="N105">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="O105">
-        <v>114</v>
-      </c>
-      <c r="P105">
         <v>543</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B106">
         <v>2027</v>
@@ -6170,13 +6086,13 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F106">
         <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H106">
         <v>70</v>
@@ -6191,24 +6107,21 @@
         <v>0.76</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="N106">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="O106">
-        <v>42</v>
-      </c>
-      <c r="P106">
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B107">
         <v>2027</v>
@@ -6220,13 +6133,13 @@
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F107">
         <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H107">
         <v>63</v>
@@ -6240,22 +6153,22 @@
       <c r="K107">
         <v>2.15</v>
       </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
       <c r="M107">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="N107">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="O107">
-        <v>64</v>
-      </c>
-      <c r="P107">
         <v>476</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108">
         <v>2027</v>
@@ -6267,13 +6180,13 @@
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F108">
         <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H108">
         <v>65</v>
@@ -6287,22 +6200,22 @@
       <c r="K108">
         <v>3.85</v>
       </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
       <c r="M108">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="N108">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="O108">
-        <v>101</v>
-      </c>
-      <c r="P108">
         <v>710</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B109">
         <v>2027</v>
@@ -6314,13 +6227,13 @@
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F109">
         <v>3</v>
       </c>
       <c r="G109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H109">
         <v>67</v>
@@ -6334,22 +6247,22 @@
       <c r="K109">
         <v>4</v>
       </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
       <c r="M109">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="N109">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="O109">
-        <v>117</v>
-      </c>
-      <c r="P109">
         <v>770</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B110">
         <v>2028</v>
@@ -6361,13 +6274,13 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F110">
         <v>3</v>
       </c>
       <c r="G110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H110">
         <v>64</v>
@@ -6382,24 +6295,21 @@
         <v>5.91</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="N110">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="O110">
-        <v>168</v>
-      </c>
-      <c r="P110">
         <v>1035</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B111">
         <v>2028</v>
@@ -6411,13 +6321,13 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F111">
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H111">
         <v>90</v>
@@ -6431,22 +6341,22 @@
       <c r="K111">
         <v>2.97</v>
       </c>
+      <c r="L111">
+        <v>5</v>
+      </c>
       <c r="M111">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="N111">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="O111">
-        <v>138</v>
-      </c>
-      <c r="P111">
         <v>503</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B112">
         <v>2028</v>
@@ -6458,13 +6368,13 @@
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F112">
         <v>3</v>
       </c>
       <c r="G112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H112">
         <v>56</v>
@@ -6478,22 +6388,22 @@
       <c r="K112">
         <v>6.97</v>
       </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
       <c r="M112">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="N112">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="O112">
-        <v>216</v>
-      </c>
-      <c r="P112">
         <v>1466</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B113">
         <v>2028</v>
@@ -6505,13 +6415,13 @@
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F113">
         <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H113">
         <v>65</v>
@@ -6525,22 +6435,22 @@
       <c r="K113">
         <v>4.2699999999999996</v>
       </c>
+      <c r="L113">
+        <v>5</v>
+      </c>
       <c r="M113">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="N113">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="O113">
-        <v>124</v>
-      </c>
-      <c r="P113">
         <v>699</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B114">
         <v>2029</v>
@@ -6552,13 +6462,13 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F114">
         <v>3</v>
       </c>
       <c r="G114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H114">
         <v>57</v>
@@ -6573,24 +6483,21 @@
         <v>2.04</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M114">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="N114">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="O114">
-        <v>104</v>
-      </c>
-      <c r="P114">
         <v>470</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B115">
         <v>2029</v>
@@ -6602,13 +6509,13 @@
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F115">
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H115">
         <v>62</v>
@@ -6622,22 +6529,22 @@
       <c r="K115">
         <v>2.4500000000000002</v>
       </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
       <c r="M115">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="N115">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="O115">
-        <v>69</v>
-      </c>
-      <c r="P115">
         <v>466</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B116">
         <v>2029</v>
@@ -6649,13 +6556,13 @@
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F116">
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H116">
         <v>68</v>
@@ -6669,22 +6576,22 @@
       <c r="K116">
         <v>2.86</v>
       </c>
+      <c r="L116">
+        <v>5</v>
+      </c>
       <c r="M116">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="N116">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="O116">
-        <v>99</v>
-      </c>
-      <c r="P116">
         <v>493</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B117">
         <v>2029</v>
@@ -6696,18 +6603,18 @@
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F117">
         <v>3</v>
       </c>
       <c r="G117" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B118">
         <v>2030</v>
@@ -6719,13 +6626,13 @@
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F118">
         <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H118">
         <v>70</v>
@@ -6740,24 +6647,21 @@
         <v>3.82</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M118">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="N118">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="O118">
-        <v>116</v>
-      </c>
-      <c r="P118">
         <v>612</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B119">
         <v>2030</v>
@@ -6769,13 +6673,13 @@
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F119">
         <v>3</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H119">
         <v>60</v>
@@ -6789,22 +6693,22 @@
       <c r="K119">
         <v>6.41</v>
       </c>
+      <c r="L119">
+        <v>6</v>
+      </c>
       <c r="M119">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="N119">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="O119">
-        <v>155</v>
-      </c>
-      <c r="P119">
         <v>1088</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B120">
         <v>2030</v>
@@ -6816,13 +6720,13 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F120">
         <v>3</v>
       </c>
       <c r="G120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H120">
         <v>64</v>
@@ -6836,22 +6740,22 @@
       <c r="K120">
         <v>5.04</v>
       </c>
+      <c r="L120">
+        <v>4</v>
+      </c>
       <c r="M120">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="N120">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="O120">
-        <v>143</v>
-      </c>
-      <c r="P120">
         <v>931</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B121">
         <v>2030</v>
@@ -6863,13 +6767,13 @@
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F121">
         <v>3</v>
       </c>
       <c r="G121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H121">
         <v>70</v>
@@ -6883,22 +6787,22 @@
       <c r="K121">
         <v>3.32</v>
       </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
       <c r="M121">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="N121">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="O121">
-        <v>96</v>
-      </c>
-      <c r="P121">
         <v>639</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B122">
         <v>2031</v>
@@ -6910,13 +6814,13 @@
         <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F122">
         <v>4</v>
       </c>
       <c r="G122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H122">
         <v>55</v>
@@ -6931,24 +6835,21 @@
         <v>3.58</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M122">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="N122">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="O122">
-        <v>133</v>
-      </c>
-      <c r="P122">
         <v>731</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B123">
         <v>2031</v>
@@ -6960,13 +6861,13 @@
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F123">
         <v>4</v>
       </c>
       <c r="G123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H123">
         <v>50</v>
@@ -6980,22 +6881,22 @@
       <c r="K123">
         <v>2.98</v>
       </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
       <c r="M123">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="N123">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="O123">
-        <v>103</v>
-      </c>
-      <c r="P123">
         <v>469</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B124">
         <v>2031</v>
@@ -7007,13 +6908,13 @@
         <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F124">
         <v>4</v>
       </c>
       <c r="G124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H124">
         <v>65</v>
@@ -7027,22 +6928,22 @@
       <c r="K124">
         <v>3.66</v>
       </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
       <c r="M124">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="N124">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="O124">
-        <v>130</v>
-      </c>
-      <c r="P124">
         <v>669</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B125">
         <v>2031</v>
@@ -7054,13 +6955,13 @@
         <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F125">
         <v>4</v>
       </c>
       <c r="G125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H125">
         <v>63</v>
@@ -7074,22 +6975,22 @@
       <c r="K125">
         <v>3.15</v>
       </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
       <c r="M125">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="N125">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="O125">
-        <v>140</v>
-      </c>
-      <c r="P125">
         <v>558</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B126">
         <v>2032</v>
@@ -7101,13 +7002,13 @@
         <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F126">
         <v>4</v>
       </c>
       <c r="G126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H126">
         <v>60</v>
@@ -7122,24 +7023,21 @@
         <v>5.74</v>
       </c>
       <c r="L126">
+        <v>7</v>
+      </c>
+      <c r="M126">
         <v>2</v>
       </c>
-      <c r="M126">
-        <v>7</v>
-      </c>
       <c r="N126">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="O126">
-        <v>195</v>
-      </c>
-      <c r="P126">
         <v>1077</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B127">
         <v>2032</v>
@@ -7151,13 +7049,13 @@
         <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F127">
         <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H127">
         <v>55</v>
@@ -7171,22 +7069,22 @@
       <c r="K127">
         <v>5.65</v>
       </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
       <c r="M127">
         <v>2</v>
       </c>
       <c r="N127">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="O127">
-        <v>138</v>
-      </c>
-      <c r="P127">
         <v>1141</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B128">
         <v>2032</v>
@@ -7198,18 +7096,18 @@
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F128">
         <v>4</v>
       </c>
       <c r="G128" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B129">
         <v>2032</v>
@@ -7221,18 +7119,18 @@
         <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F129">
         <v>4</v>
       </c>
       <c r="G129" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B130">
         <v>2033</v>
@@ -7244,13 +7142,13 @@
         <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F130">
         <v>4</v>
       </c>
       <c r="G130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H130">
         <v>69</v>
@@ -7268,21 +7166,18 @@
         <v>4</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="N130">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="O130">
-        <v>185</v>
-      </c>
-      <c r="P130">
         <v>1002</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B131">
         <v>2033</v>
@@ -7294,13 +7189,13 @@
         <v>4</v>
       </c>
       <c r="E131" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F131">
         <v>4</v>
       </c>
       <c r="G131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H131">
         <v>76</v>
@@ -7314,22 +7209,22 @@
       <c r="K131">
         <v>3.72</v>
       </c>
+      <c r="L131">
+        <v>5</v>
+      </c>
       <c r="M131">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="N131">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="O131">
-        <v>161</v>
-      </c>
-      <c r="P131">
         <v>592</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B132">
         <v>2033</v>
@@ -7341,13 +7236,13 @@
         <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F132">
         <v>4</v>
       </c>
       <c r="G132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H132">
         <v>76</v>
@@ -7361,22 +7256,22 @@
       <c r="K132">
         <v>3.7</v>
       </c>
+      <c r="L132">
+        <v>4</v>
+      </c>
       <c r="M132">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="N132">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="O132">
-        <v>136</v>
-      </c>
-      <c r="P132">
         <v>770</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B133">
         <v>2033</v>
@@ -7388,13 +7283,13 @@
         <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F133">
         <v>4</v>
       </c>
       <c r="G133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H133">
         <v>70</v>
@@ -7408,22 +7303,22 @@
       <c r="K133">
         <v>0.37</v>
       </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
       <c r="M133">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="N133">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="O133">
-        <v>27</v>
-      </c>
-      <c r="P133">
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B134">
         <v>2034</v>
@@ -7435,13 +7330,13 @@
         <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F134">
         <v>4</v>
       </c>
       <c r="G134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H134">
         <v>70</v>
@@ -7456,24 +7351,21 @@
         <v>0.6</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="N134">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="O134">
-        <v>32</v>
-      </c>
-      <c r="P134">
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B135">
         <v>2034</v>
@@ -7485,13 +7377,13 @@
         <v>4</v>
       </c>
       <c r="E135" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F135">
         <v>4</v>
       </c>
       <c r="G135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H135">
         <v>68</v>
@@ -7505,22 +7397,22 @@
       <c r="K135">
         <v>3.9</v>
       </c>
+      <c r="L135">
+        <v>5</v>
+      </c>
       <c r="M135">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="N135">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="O135">
-        <v>122</v>
-      </c>
-      <c r="P135">
         <v>823</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B136">
         <v>2034</v>
@@ -7532,13 +7424,13 @@
         <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F136">
         <v>4</v>
       </c>
       <c r="G136" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H136">
         <v>60</v>
@@ -7552,22 +7444,22 @@
       <c r="K136">
         <v>4.18</v>
       </c>
+      <c r="L136">
+        <v>5</v>
+      </c>
       <c r="M136">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="N136">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="O136">
-        <v>115</v>
-      </c>
-      <c r="P136">
         <v>851</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B137">
         <v>2034</v>
@@ -7579,13 +7471,13 @@
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F137">
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H137">
         <v>60</v>
@@ -7599,22 +7491,22 @@
       <c r="K137">
         <v>1.3</v>
       </c>
+      <c r="L137">
+        <v>6</v>
+      </c>
       <c r="M137">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N137">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="O137">
-        <v>92</v>
-      </c>
-      <c r="P137">
         <v>311</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B138">
         <v>2035</v>
@@ -7626,13 +7518,13 @@
         <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F138">
         <v>4</v>
       </c>
       <c r="G138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H138">
         <v>50</v>
@@ -7647,24 +7539,21 @@
         <v>1.19</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M138">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="N138">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O138">
-        <v>49</v>
-      </c>
-      <c r="P138">
         <v>264</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B139">
         <v>2035</v>
@@ -7676,13 +7565,13 @@
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F139">
         <v>4</v>
       </c>
       <c r="G139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H139">
         <v>55</v>
@@ -7696,22 +7585,22 @@
       <c r="K139">
         <v>2.61</v>
       </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
       <c r="M139">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="N139">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O139">
-        <v>69</v>
-      </c>
-      <c r="P139">
         <v>561</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B140">
         <v>2035</v>
@@ -7723,13 +7612,13 @@
         <v>4</v>
       </c>
       <c r="E140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F140">
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H140">
         <v>63</v>
@@ -7743,22 +7632,22 @@
       <c r="K140">
         <v>3.37</v>
       </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
       <c r="M140">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="N140">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="O140">
-        <v>87</v>
-      </c>
-      <c r="P140">
         <v>686</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B141">
         <v>2035</v>
@@ -7770,13 +7659,13 @@
         <v>4</v>
       </c>
       <c r="E141" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F141">
         <v>4</v>
       </c>
       <c r="G141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H141">
         <v>65</v>
@@ -7790,22 +7679,22 @@
       <c r="K141">
         <v>1.98</v>
       </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
       <c r="M141">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="N141">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O141">
-        <v>61</v>
-      </c>
-      <c r="P141">
         <v>360</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B142">
         <v>2036</v>
@@ -7817,13 +7706,13 @@
         <v>4</v>
       </c>
       <c r="E142" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F142">
         <v>4</v>
       </c>
       <c r="G142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H142">
         <v>65</v>
@@ -7838,24 +7727,21 @@
         <v>1.94</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M142">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="N142">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O142">
-        <v>51</v>
-      </c>
-      <c r="P142">
         <v>387</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B143">
         <v>2036</v>
@@ -7867,13 +7753,13 @@
         <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F143">
         <v>4</v>
       </c>
       <c r="G143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H143">
         <v>50</v>
@@ -7887,22 +7773,22 @@
       <c r="K143">
         <v>1.24</v>
       </c>
+      <c r="L143">
+        <v>5</v>
+      </c>
       <c r="M143">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N143">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O143">
-        <v>45</v>
-      </c>
-      <c r="P143">
         <v>316</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B144">
         <v>2036</v>
@@ -7914,13 +7800,13 @@
         <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F144">
         <v>4</v>
       </c>
       <c r="G144" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H144">
         <v>53</v>
@@ -7934,22 +7820,22 @@
       <c r="K144">
         <v>1.97</v>
       </c>
+      <c r="L144">
+        <v>5</v>
+      </c>
       <c r="M144">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N144">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O144">
-        <v>62</v>
-      </c>
-      <c r="P144">
         <v>379</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B145">
         <v>2036</v>
@@ -7961,13 +7847,13 @@
         <v>4</v>
       </c>
       <c r="E145" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F145">
         <v>4</v>
       </c>
       <c r="G145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H145">
         <v>70</v>
@@ -7981,22 +7867,22 @@
       <c r="K145">
         <v>2.31</v>
       </c>
+      <c r="L145">
+        <v>4</v>
+      </c>
       <c r="M145">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="N145">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="O145">
-        <v>67</v>
-      </c>
-      <c r="P145">
         <v>380</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B146">
         <v>2037</v>
@@ -8008,18 +7894,18 @@
         <v>4</v>
       </c>
       <c r="E146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>198</v>
-      </c>
-      <c r="F146">
-        <v>4</v>
-      </c>
-      <c r="G146" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>199</v>
       </c>
       <c r="B147">
         <v>2037</v>
@@ -8031,18 +7917,18 @@
         <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F147">
         <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B148">
         <v>2037</v>
@@ -8054,18 +7940,18 @@
         <v>4</v>
       </c>
       <c r="E148" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F148">
         <v>4</v>
       </c>
       <c r="G148" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B149">
         <v>2037</v>
@@ -8077,18 +7963,18 @@
         <v>4</v>
       </c>
       <c r="E149" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F149">
         <v>4</v>
       </c>
       <c r="G149" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B150">
         <v>2038</v>
@@ -8100,13 +7986,13 @@
         <v>4</v>
       </c>
       <c r="E150" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F150">
         <v>4</v>
       </c>
       <c r="G150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H150">
         <v>55</v>
@@ -8121,24 +8007,21 @@
         <v>1.44</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M150">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N150">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="O150">
-        <v>56</v>
-      </c>
-      <c r="P150">
         <v>328</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B151">
         <v>2038</v>
@@ -8150,13 +8033,13 @@
         <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F151">
         <v>4</v>
       </c>
       <c r="G151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H151">
         <v>57</v>
@@ -8170,22 +8053,22 @@
       <c r="K151">
         <v>1.04</v>
       </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
       <c r="M151">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N151">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="O151">
-        <v>53</v>
-      </c>
-      <c r="P151">
         <v>262</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B152">
         <v>2038</v>
@@ -8197,13 +8080,13 @@
         <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F152">
         <v>4</v>
       </c>
       <c r="G152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H152">
         <v>60</v>
@@ -8217,22 +8100,22 @@
       <c r="K152">
         <v>4.16</v>
       </c>
+      <c r="L152">
+        <v>7</v>
+      </c>
       <c r="M152">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N152">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="O152">
-        <v>135</v>
-      </c>
-      <c r="P152">
         <v>892</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B153">
         <v>2038</v>
@@ -8244,13 +8127,13 @@
         <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F153">
         <v>4</v>
       </c>
       <c r="G153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H153">
         <v>75</v>
@@ -8264,22 +8147,22 @@
       <c r="K153">
         <v>3.02</v>
       </c>
+      <c r="L153">
+        <v>7</v>
+      </c>
       <c r="M153">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N153">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="O153">
-        <v>111</v>
-      </c>
-      <c r="P153">
         <v>666</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B154">
         <v>2039</v>
@@ -8291,13 +8174,13 @@
         <v>4</v>
       </c>
       <c r="E154" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F154">
         <v>4</v>
       </c>
       <c r="G154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H154">
         <v>69</v>
@@ -8312,24 +8195,21 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="L154">
+        <v>3</v>
+      </c>
+      <c r="M154">
         <v>2</v>
       </c>
-      <c r="M154">
-        <v>3</v>
-      </c>
       <c r="N154">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="O154">
-        <v>40</v>
-      </c>
-      <c r="P154">
         <v>236</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B155">
         <v>2039</v>
@@ -8341,13 +8221,13 @@
         <v>4</v>
       </c>
       <c r="E155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F155">
         <v>4</v>
       </c>
       <c r="G155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H155">
         <v>65</v>
@@ -8361,22 +8241,22 @@
       <c r="K155">
         <v>2.39</v>
       </c>
+      <c r="L155">
+        <v>4</v>
+      </c>
       <c r="M155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N155">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="O155">
-        <v>75</v>
-      </c>
-      <c r="P155">
         <v>549</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B156">
         <v>2039</v>
@@ -8388,18 +8268,18 @@
         <v>4</v>
       </c>
       <c r="E156" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F156">
         <v>4</v>
       </c>
       <c r="G156" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B157">
         <v>2039</v>
@@ -8411,18 +8291,18 @@
         <v>4</v>
       </c>
       <c r="E157" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F157">
         <v>4</v>
       </c>
       <c r="G157" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B158">
         <v>2040</v>
@@ -8434,18 +8314,18 @@
         <v>4</v>
       </c>
       <c r="E158" t="s">
+        <v>212</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
+      </c>
+      <c r="G158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>213</v>
-      </c>
-      <c r="F158">
-        <v>4</v>
-      </c>
-      <c r="G158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>214</v>
       </c>
       <c r="B159">
         <v>2040</v>
@@ -8457,18 +8337,18 @@
         <v>4</v>
       </c>
       <c r="E159" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F159">
         <v>4</v>
       </c>
       <c r="G159" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B160">
         <v>2040</v>
@@ -8480,18 +8360,18 @@
         <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F160">
         <v>4</v>
       </c>
       <c r="G160" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B161">
         <v>2040</v>
@@ -8503,18 +8383,18 @@
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F161">
         <v>4</v>
       </c>
       <c r="G161" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B162">
         <v>2041</v>
@@ -8526,13 +8406,13 @@
         <v>5</v>
       </c>
       <c r="E162" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F162">
         <v>5</v>
       </c>
       <c r="G162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H162">
         <v>52</v>
@@ -8547,24 +8427,21 @@
         <v>1.85</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M162">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N162">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="O162">
-        <v>50</v>
-      </c>
-      <c r="P162">
         <v>335</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B163">
         <v>2041</v>
@@ -8576,13 +8453,13 @@
         <v>5</v>
       </c>
       <c r="E163" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F163">
         <v>5</v>
       </c>
       <c r="G163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H163">
         <v>53</v>
@@ -8596,22 +8473,22 @@
       <c r="K163">
         <v>0.75</v>
       </c>
+      <c r="L163">
+        <v>4</v>
+      </c>
       <c r="M163">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N163">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="O163">
-        <v>39</v>
-      </c>
-      <c r="P163">
         <v>141</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B164">
         <v>2041</v>
@@ -8623,13 +8500,13 @@
         <v>5</v>
       </c>
       <c r="E164" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F164">
         <v>5</v>
       </c>
       <c r="G164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H164">
         <v>68</v>
@@ -8643,22 +8520,22 @@
       <c r="K164">
         <v>0.64</v>
       </c>
+      <c r="L164">
+        <v>6</v>
+      </c>
       <c r="M164">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N164">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="O164">
-        <v>36</v>
-      </c>
-      <c r="P164">
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B165">
         <v>2041</v>
@@ -8670,13 +8547,13 @@
         <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F165">
         <v>5</v>
       </c>
       <c r="G165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H165">
         <v>60</v>
@@ -8690,22 +8567,22 @@
       <c r="K165">
         <v>0.33</v>
       </c>
+      <c r="L165">
+        <v>8</v>
+      </c>
       <c r="M165">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N165">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O165">
-        <v>17</v>
-      </c>
-      <c r="P165">
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B166">
         <v>2042</v>
@@ -8717,13 +8594,13 @@
         <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F166">
         <v>5</v>
       </c>
       <c r="G166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H166">
         <v>50</v>
@@ -8738,24 +8615,21 @@
         <v>0.85</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M166">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N166">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="O166">
-        <v>34</v>
-      </c>
-      <c r="P166">
         <v>238</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B167">
         <v>2042</v>
@@ -8767,13 +8641,13 @@
         <v>5</v>
       </c>
       <c r="E167" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F167">
         <v>5</v>
       </c>
       <c r="G167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H167">
         <v>58</v>
@@ -8787,22 +8661,22 @@
       <c r="K167">
         <v>1.28</v>
       </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
       <c r="M167">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N167">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="O167">
-        <v>42</v>
-      </c>
-      <c r="P167">
         <v>281</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B168">
         <v>2042</v>
@@ -8814,13 +8688,13 @@
         <v>5</v>
       </c>
       <c r="E168" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F168">
         <v>5</v>
       </c>
       <c r="G168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H168">
         <v>50</v>
@@ -8834,22 +8708,22 @@
       <c r="K168">
         <v>0.77</v>
       </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
       <c r="M168">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N168">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="O168">
-        <v>36</v>
-      </c>
-      <c r="P168">
         <v>227</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B169">
         <v>2042</v>
@@ -8861,13 +8735,13 @@
         <v>5</v>
       </c>
       <c r="E169" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F169">
         <v>5</v>
       </c>
       <c r="G169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H169">
         <v>40</v>
@@ -8881,22 +8755,22 @@
       <c r="K169">
         <v>0.11</v>
       </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
       <c r="M169">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N169">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="O169">
-        <v>4</v>
-      </c>
-      <c r="P169">
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B170">
         <v>2043</v>
@@ -8908,18 +8782,18 @@
         <v>5</v>
       </c>
       <c r="E170" t="s">
+        <v>227</v>
+      </c>
+      <c r="F170">
+        <v>5</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>228</v>
-      </c>
-      <c r="F170">
-        <v>5</v>
-      </c>
-      <c r="G170" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>229</v>
       </c>
       <c r="B171">
         <v>2043</v>
@@ -8931,18 +8805,18 @@
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F171">
         <v>5</v>
       </c>
       <c r="G171" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B172">
         <v>2043</v>
@@ -8954,18 +8828,18 @@
         <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F172">
         <v>5</v>
       </c>
       <c r="G172" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B173">
         <v>2043</v>
@@ -8977,18 +8851,18 @@
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F173">
         <v>5</v>
       </c>
       <c r="G173" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B174">
         <v>2044</v>
@@ -9000,13 +8874,13 @@
         <v>5</v>
       </c>
       <c r="E174" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F174">
         <v>5</v>
       </c>
       <c r="G174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H174">
         <v>49</v>
@@ -9021,24 +8895,21 @@
         <v>0.31</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M174">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N174">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O174">
-        <v>24</v>
-      </c>
-      <c r="P174">
         <v>97</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B175">
         <v>2044</v>
@@ -9050,13 +8921,13 @@
         <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F175">
         <v>5</v>
       </c>
       <c r="G175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H175">
         <v>60</v>
@@ -9070,22 +8941,22 @@
       <c r="K175">
         <v>0.71</v>
       </c>
+      <c r="L175">
+        <v>5</v>
+      </c>
       <c r="M175">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N175">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O175">
-        <v>25</v>
-      </c>
-      <c r="P175">
         <v>147</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B176">
         <v>2044</v>
@@ -9097,13 +8968,13 @@
         <v>5</v>
       </c>
       <c r="E176" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F176">
         <v>5</v>
       </c>
       <c r="G176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H176">
         <v>69</v>
@@ -9117,22 +8988,22 @@
       <c r="K176">
         <v>0.48</v>
       </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
       <c r="M176">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N176">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O176">
-        <v>25</v>
-      </c>
-      <c r="P176">
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B177">
         <v>2044</v>
@@ -9144,13 +9015,13 @@
         <v>5</v>
       </c>
       <c r="E177" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F177">
         <v>5</v>
       </c>
       <c r="G177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H177">
         <v>63</v>
@@ -9164,22 +9035,22 @@
       <c r="K177">
         <v>0.65</v>
       </c>
+      <c r="L177">
+        <v>6</v>
+      </c>
       <c r="M177">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N177">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O177">
-        <v>25</v>
-      </c>
-      <c r="P177">
         <v>152</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B178">
         <v>2045</v>
@@ -9191,13 +9062,13 @@
         <v>5</v>
       </c>
       <c r="E178" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F178">
         <v>5</v>
       </c>
       <c r="G178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H178">
         <v>72</v>
@@ -9212,24 +9083,21 @@
         <v>1.68</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M178">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="N178">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O178">
-        <v>85</v>
-      </c>
-      <c r="P178">
         <v>411</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B179">
         <v>2045</v>
@@ -9241,13 +9109,13 @@
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F179">
         <v>5</v>
       </c>
       <c r="G179" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H179">
         <v>77</v>
@@ -9261,22 +9129,22 @@
       <c r="K179">
         <v>1.05</v>
       </c>
+      <c r="L179">
+        <v>9</v>
+      </c>
       <c r="M179">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="N179">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="O179">
-        <v>246</v>
-      </c>
-      <c r="P179">
         <v>227</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B180">
         <v>2045</v>
@@ -9288,13 +9156,13 @@
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F180">
         <v>5</v>
       </c>
       <c r="G180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H180">
         <v>65</v>
@@ -9308,22 +9176,22 @@
       <c r="K180">
         <v>4.45</v>
       </c>
+      <c r="L180">
+        <v>7</v>
+      </c>
       <c r="M180">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N180">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="O180">
-        <v>157</v>
-      </c>
-      <c r="P180">
         <v>922</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B181">
         <v>2045</v>
@@ -9335,13 +9203,13 @@
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F181">
         <v>5</v>
       </c>
       <c r="G181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H181">
         <v>73</v>
@@ -9355,22 +9223,22 @@
       <c r="K181">
         <v>1.8</v>
       </c>
+      <c r="L181">
+        <v>5</v>
+      </c>
       <c r="M181">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="N181">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="O181">
-        <v>82</v>
-      </c>
-      <c r="P181">
         <v>375</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B182">
         <v>2046</v>
@@ -9382,18 +9250,18 @@
         <v>5</v>
       </c>
       <c r="E182" t="s">
+        <v>242</v>
+      </c>
+      <c r="F182">
+        <v>5</v>
+      </c>
+      <c r="G182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>243</v>
-      </c>
-      <c r="F182">
-        <v>5</v>
-      </c>
-      <c r="G182" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>244</v>
       </c>
       <c r="B183">
         <v>2046</v>
@@ -9405,18 +9273,18 @@
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F183">
         <v>5</v>
       </c>
       <c r="G183" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B184">
         <v>2046</v>
@@ -9428,18 +9296,18 @@
         <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F184">
         <v>5</v>
       </c>
       <c r="G184" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B185">
         <v>2046</v>
@@ -9451,18 +9319,18 @@
         <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F185">
         <v>5</v>
       </c>
       <c r="G185" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B186">
         <v>2047</v>
@@ -9474,13 +9342,13 @@
         <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F186">
         <v>5</v>
       </c>
       <c r="G186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H186">
         <v>46</v>
@@ -9495,24 +9363,21 @@
         <v>1.21</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M186">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="N186">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="O186">
-        <v>28</v>
-      </c>
-      <c r="P186">
         <v>202</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B187">
         <v>2047</v>
@@ -9524,13 +9389,13 @@
         <v>5</v>
       </c>
       <c r="E187" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F187">
         <v>5</v>
       </c>
       <c r="G187" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H187">
         <v>50</v>
@@ -9544,22 +9409,22 @@
       <c r="K187">
         <v>2.5299999999999998</v>
       </c>
+      <c r="L187">
+        <v>5</v>
+      </c>
       <c r="M187">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="N187">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O187">
-        <v>63</v>
-      </c>
-      <c r="P187">
         <v>417</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B188">
         <v>2047</v>
@@ -9571,13 +9436,13 @@
         <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F188">
         <v>5</v>
       </c>
       <c r="G188" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H188">
         <v>50</v>
@@ -9591,22 +9456,22 @@
       <c r="K188">
         <v>1.26</v>
       </c>
+      <c r="L188">
+        <v>3</v>
+      </c>
       <c r="M188">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="N188">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O188">
-        <v>61</v>
-      </c>
-      <c r="P188">
         <v>316</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B189">
         <v>2047</v>
@@ -9618,13 +9483,13 @@
         <v>5</v>
       </c>
       <c r="E189" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F189">
         <v>5</v>
       </c>
       <c r="G189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H189">
         <v>68</v>
@@ -9638,22 +9503,22 @@
       <c r="K189">
         <v>1.04</v>
       </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
       <c r="M189">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="N189">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="O189">
-        <v>37</v>
-      </c>
-      <c r="P189">
         <v>172</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B190">
         <v>2048</v>
@@ -9665,13 +9530,13 @@
         <v>5</v>
       </c>
       <c r="E190" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F190">
         <v>5</v>
       </c>
       <c r="G190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H190">
         <v>80</v>
@@ -9686,24 +9551,21 @@
         <v>2.33</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M190">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N190">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="O190">
-        <v>87</v>
-      </c>
-      <c r="P190">
         <v>493</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B191">
         <v>2048</v>
@@ -9715,13 +9577,13 @@
         <v>5</v>
       </c>
       <c r="E191" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F191">
         <v>5</v>
       </c>
       <c r="G191" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H191">
         <v>86</v>
@@ -9735,22 +9597,22 @@
       <c r="K191">
         <v>4.3600000000000003</v>
       </c>
+      <c r="L191">
+        <v>9</v>
+      </c>
       <c r="M191">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="N191">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="O191">
-        <v>142</v>
-      </c>
-      <c r="P191">
         <v>791</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B192">
         <v>2048</v>
@@ -9762,13 +9624,13 @@
         <v>5</v>
       </c>
       <c r="E192" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F192">
         <v>5</v>
       </c>
       <c r="G192" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H192">
         <v>91</v>
@@ -9782,22 +9644,22 @@
       <c r="K192">
         <v>4.0599999999999996</v>
       </c>
+      <c r="L192">
+        <v>8</v>
+      </c>
       <c r="M192">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N192">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="O192">
-        <v>133</v>
-      </c>
-      <c r="P192">
         <v>830</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B193">
         <v>2048</v>
@@ -9809,13 +9671,13 @@
         <v>5</v>
       </c>
       <c r="E193" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F193">
         <v>5</v>
       </c>
       <c r="G193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H193">
         <v>90</v>
@@ -9829,22 +9691,22 @@
       <c r="K193">
         <v>2.0499999999999998</v>
       </c>
+      <c r="L193">
+        <v>7</v>
+      </c>
       <c r="M193">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N193">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="O193">
-        <v>119</v>
-      </c>
-      <c r="P193">
         <v>513</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B194">
         <v>2049</v>
@@ -9856,13 +9718,13 @@
         <v>5</v>
       </c>
       <c r="E194" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F194">
         <v>5</v>
       </c>
       <c r="G194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H194">
         <v>54</v>
@@ -9880,21 +9742,18 @@
         <v>4</v>
       </c>
       <c r="M194">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N194">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="O194">
-        <v>92</v>
-      </c>
-      <c r="P194">
         <v>821</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B195">
         <v>2049</v>
@@ -9906,13 +9765,13 @@
         <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F195">
         <v>5</v>
       </c>
       <c r="G195" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H195">
         <v>57</v>
@@ -9926,22 +9785,22 @@
       <c r="K195">
         <v>4.2699999999999996</v>
       </c>
+      <c r="L195">
+        <v>3</v>
+      </c>
       <c r="M195">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N195">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="O195">
-        <v>113</v>
-      </c>
-      <c r="P195">
         <v>796</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B196">
         <v>2049</v>
@@ -9953,13 +9812,13 @@
         <v>5</v>
       </c>
       <c r="E196" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F196">
         <v>5</v>
       </c>
       <c r="G196" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H196">
         <v>65</v>
@@ -9973,22 +9832,22 @@
       <c r="K196">
         <v>3</v>
       </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
       <c r="M196">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N196">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="O196">
-        <v>86</v>
-      </c>
-      <c r="P196">
         <v>623</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B197">
         <v>2049</v>
@@ -10000,13 +9859,13 @@
         <v>5</v>
       </c>
       <c r="E197" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F197">
         <v>5</v>
       </c>
       <c r="G197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H197">
         <v>72</v>
@@ -10020,22 +9879,22 @@
       <c r="K197">
         <v>2.33</v>
       </c>
+      <c r="L197">
+        <v>5</v>
+      </c>
       <c r="M197">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N197">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="O197">
-        <v>101</v>
-      </c>
-      <c r="P197">
         <v>359</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B198">
         <v>2050</v>
@@ -10047,18 +9906,18 @@
         <v>5</v>
       </c>
       <c r="E198" t="s">
+        <v>261</v>
+      </c>
+      <c r="F198">
+        <v>5</v>
+      </c>
+      <c r="G198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>262</v>
-      </c>
-      <c r="F198">
-        <v>5</v>
-      </c>
-      <c r="G198" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>263</v>
       </c>
       <c r="B199">
         <v>2050</v>
@@ -10070,18 +9929,18 @@
         <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F199">
         <v>5</v>
       </c>
       <c r="G199" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B200">
         <v>2050</v>
@@ -10093,18 +9952,18 @@
         <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F200">
         <v>5</v>
       </c>
       <c r="G200" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B201">
         <v>2050</v>
@@ -10116,13 +9975,13 @@
         <v>5</v>
       </c>
       <c r="E201" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F201">
         <v>5</v>
       </c>
       <c r="G201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/dados_labfoto.xlsx
+++ b/data/dados_labfoto.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\UFSC\Publications\NEPEM\RBAS\69rbras21seagro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066240C-F20D-4276-ABA9-77D00D4994B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533BE31C-19D9-4880-ACCF-1B51904DBD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -838,12 +849,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -858,11 +875,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,12 +1221,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2017,31 +2037,31 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>72</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>36</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>8.49</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>6.78</v>
       </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
+      <c r="L19" s="2">
+        <v>3</v>
+      </c>
+      <c r="M19" s="2">
         <v>27</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="2">
         <v>180</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="2">
         <v>1230</v>
       </c>
     </row>
@@ -2074,7 +2094,7 @@
         <v>35</v>
       </c>
       <c r="J20">
-        <v>6.51</v>
+        <v>1.66</v>
       </c>
       <c r="K20">
         <v>0.92</v>
@@ -2086,7 +2106,7 @@
         <v>27</v>
       </c>
       <c r="N20">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="O20">
         <v>216</v>
@@ -2121,7 +2141,7 @@
         <v>34</v>
       </c>
       <c r="J21">
-        <v>1.66</v>
+        <v>6.51</v>
       </c>
       <c r="K21">
         <v>4.96</v>
@@ -2133,7 +2153,7 @@
         <v>27</v>
       </c>
       <c r="N21">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="O21">
         <v>1062</v>
@@ -3531,10 +3551,10 @@
         <v>43</v>
       </c>
       <c r="J51">
+        <v>0.21</v>
+      </c>
+      <c r="K51">
         <v>0.15</v>
-      </c>
-      <c r="K51">
-        <v>0.95</v>
       </c>
       <c r="L51">
         <v>2</v>
@@ -4283,7 +4303,7 @@
         <v>29</v>
       </c>
       <c r="J67">
-        <v>1.2E-2</v>
+        <v>0.12</v>
       </c>
       <c r="K67">
         <v>0.08</v>
@@ -5461,7 +5481,7 @@
         <v>3.47</v>
       </c>
       <c r="K92">
-        <v>0.34</v>
+        <v>2.25</v>
       </c>
       <c r="L92">
         <v>4</v>
